--- a/game/docs/后台计划进度-实际进度.xlsx
+++ b/game/docs/后台计划进度-实际进度.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="123">
   <si>
     <t>新架构-常熟项目任务细分表</t>
   </si>
@@ -695,6 +695,45 @@
   </si>
   <si>
     <t xml:space="preserve">完成俱乐部基本接口 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月19号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月26号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、分数UI、听牌提示UI，操作UI制作，放大出牌UI（未联调）
+2、出牌、摸排、吃碰杠逻辑实现（未联调）
+额外：
+俱乐部模块换皮
+俱乐部战绩统计功能开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、配合客户端调试出牌,增加游戏配牌功能
+2、新增游戏指令功能,方便游戏测试,优化房间解散功能,区分从俱乐部解散,游戏解散,强制解散,优化投票解散
+3、新增游戏过程中要牌功能,添加可以从客户端配牌功能
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开始前端调通</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调通游戏开始</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -969,27 +1008,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1008,6 +1026,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1311,36 +1350,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="65.099999999999994" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
     </row>
@@ -1366,10 +1405,10 @@
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1384,21 +1423,21 @@
     <row r="4" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="33"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="30" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="33" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="14" t="s">
@@ -1411,15 +1450,15 @@
     <row r="5" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="33"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="28"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="24"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="34"/>
       <c r="J5" s="14" t="s">
         <v>20</v>
       </c>
@@ -1430,15 +1469,15 @@
     <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="33"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="28"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="24"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="14" t="s">
         <v>22</v>
       </c>
@@ -1449,15 +1488,15 @@
     <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="33"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="24"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="14" t="s">
         <v>24</v>
       </c>
@@ -1468,15 +1507,15 @@
     <row r="8" spans="1:13" ht="30" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="33"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="28"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="30"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="24"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="14" t="s">
         <v>26</v>
       </c>
@@ -1487,15 +1526,15 @@
     <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="33"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="29"/>
+      <c r="E9" s="32"/>
       <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="25"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="14" t="s">
         <v>28</v>
       </c>
@@ -1512,19 +1551,19 @@
       <c r="D10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="30" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="33" t="s">
         <v>32</v>
       </c>
       <c r="J10" s="14" t="s">
@@ -1545,13 +1584,13 @@
       <c r="D11" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="14" t="s">
         <v>20</v>
       </c>
@@ -1570,13 +1609,13 @@
       <c r="D12" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="14" t="s">
         <v>22</v>
       </c>
@@ -1595,13 +1634,13 @@
       <c r="D13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="28"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="14" t="s">
         <v>24</v>
       </c>
@@ -1620,13 +1659,13 @@
       <c r="D14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="28"/>
+      <c r="E14" s="31"/>
       <c r="F14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="14" t="s">
         <v>26</v>
       </c>
@@ -1645,13 +1684,13 @@
       <c r="D15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="29"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="14" t="s">
         <v>38</v>
       </c>
@@ -1670,19 +1709,19 @@
       <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="26"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="14" t="s">
         <v>18</v>
       </c>
@@ -1701,13 +1740,13 @@
       <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="24"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="14" t="s">
         <v>20</v>
       </c>
@@ -1720,13 +1759,13 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="14" t="s">
         <v>22</v>
       </c>
@@ -1739,13 +1778,13 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="24"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="14" t="s">
         <v>24</v>
       </c>
@@ -1758,13 +1797,13 @@
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="24"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="14" t="s">
         <v>26</v>
       </c>
@@ -1777,13 +1816,13 @@
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="14" t="s">
         <v>38</v>
       </c>
@@ -1798,19 +1837,19 @@
         <v>83</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="33" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="26" t="s">
+      <c r="I22" s="33" t="s">
         <v>51</v>
       </c>
       <c r="J22" s="14" t="s">
@@ -1827,13 +1866,13 @@
         <v>81</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="24"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="14" t="s">
         <v>20</v>
       </c>
@@ -1848,13 +1887,13 @@
         <v>82</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="14" t="s">
         <v>22</v>
       </c>
@@ -1867,13 +1906,13 @@
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="14" t="s">
         <v>24</v>
       </c>
@@ -1886,13 +1925,13 @@
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
       <c r="J26" s="14" t="s">
         <v>26</v>
       </c>
@@ -1905,11 +1944,11 @@
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="25"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="14" t="s">
         <v>38</v>
       </c>
@@ -1922,17 +1961,17 @@
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="26"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="I28" s="26" t="s">
+      <c r="I28" s="33" t="s">
         <v>84</v>
       </c>
       <c r="J28" s="14" t="s">
@@ -1947,13 +1986,13 @@
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="24"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
       <c r="J29" s="14" t="s">
         <v>20</v>
       </c>
@@ -1966,13 +2005,13 @@
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="24"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="14" t="s">
         <v>22</v>
       </c>
@@ -1985,11 +2024,11 @@
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
       <c r="J31" s="14" t="s">
         <v>24</v>
       </c>
@@ -2002,11 +2041,11 @@
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="24"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
       <c r="J32" s="14" t="s">
         <v>26</v>
       </c>
@@ -2019,11 +2058,11 @@
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="25"/>
+      <c r="E33" s="35"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="14" t="s">
         <v>38</v>
       </c>
@@ -2082,14 +2121,15 @@
     <row r="40" spans="1:13" ht="24.95" customHeight="1"/>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="H10:H15"/>
+    <mergeCell ref="H16:H21"/>
+    <mergeCell ref="H22:H27"/>
+    <mergeCell ref="H28:H33"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="I16:I21"/>
+    <mergeCell ref="I22:I27"/>
+    <mergeCell ref="I28:I33"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="E16:E21"/>
     <mergeCell ref="E22:E27"/>
@@ -2099,15 +2139,14 @@
     <mergeCell ref="G16:G21"/>
     <mergeCell ref="G22:G27"/>
     <mergeCell ref="G28:G33"/>
-    <mergeCell ref="H10:H15"/>
-    <mergeCell ref="H16:H21"/>
-    <mergeCell ref="H22:H27"/>
-    <mergeCell ref="H28:H33"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="I16:I21"/>
-    <mergeCell ref="I22:I27"/>
-    <mergeCell ref="I28:I33"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E4:E9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -2117,34 +2156,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.625" customWidth="1"/>
     <col min="4" max="4" width="20.75" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
@@ -2318,6 +2357,48 @@
       </c>
       <c r="C25" s="22" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="94.5">
+      <c r="B31" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
